--- a/QLSieuThi/report/sanphamdb.xlsx
+++ b/QLSieuThi/report/sanphamdb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MInh\GitHub\QLSThi\QLSieuThi\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minh\GitHub\QLSThi\QLSieuThi\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FBA03-7096-4E27-B18F-702E3A01C42C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911E540-4CD7-4583-9057-505B61F018B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="135" windowWidth="18315" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sanphamdb" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>MASP</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>007.jpg</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Nước Uống Đóng Chai Lavie</t>
   </si>
 </sst>
 </file>
@@ -485,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>8000</v>
@@ -589,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -615,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>27000</v>
@@ -641,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>25000</v>
@@ -693,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>9000</v>
@@ -708,32 +702,6 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>9000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
